--- a/attached_assets/GASTOS_LOCALES_DESTINO_FCL_LCL_AEREO_-_copia_1766237522680.xlsx
+++ b/attached_assets/GASTOS_LOCALES_DESTINO_FCL_LCL_AEREO_-_copia_1766237522680.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D8EC55-530A-405E-90E5-7431A20D614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE74D3C-D400-4252-93C6-BDA77C04090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A05B20-C635-429B-A0ED-631FA24298CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C0A05B20-C635-429B-A0ED-631FA24298CC}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALES DESTINO FCL" sheetId="1" r:id="rId1"/>
@@ -415,39 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,7 +433,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BF5FDB-82D8-450B-8481-25D155683B34}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,66 +831,66 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1229,13 +1232,16 @@
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5796D88-7E30-49B5-9CB1-4E806B2430F2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1250,54 +1256,58 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066945CA-D339-44C4-AA22-0B9115BFF53E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B5:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1312,12 +1322,12 @@
   <sheetData>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1372,17 +1382,18 @@
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>